--- a/金额表.xlsx
+++ b/金额表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{665D445D-C630-4719-B0C6-A0A895EF00A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC351C-ADBB-4417-8FC5-58DCB1257297}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>员工属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>核算金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,9 @@
   <si>
     <t>潜江</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用工性质</t>
   </si>
 </sst>
 </file>
@@ -398,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -409,10 +408,10 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -420,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -431,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>300</v>
@@ -442,7 +441,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>100</v>
@@ -453,7 +452,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -461,10 +460,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1500</v>
@@ -472,10 +471,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>800</v>
@@ -483,10 +482,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>500</v>
@@ -494,10 +493,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>100</v>
@@ -505,10 +504,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>200</v>
@@ -516,10 +515,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>100</v>
@@ -527,10 +526,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -538,10 +537,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -549,10 +548,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>2500</v>
@@ -560,10 +559,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>1500</v>
@@ -571,10 +570,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1000</v>
@@ -582,10 +581,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>500</v>
@@ -593,10 +592,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>300</v>
@@ -604,10 +603,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>250</v>
@@ -615,10 +614,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20">
         <v>200</v>
@@ -626,10 +625,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21">
         <v>50</v>
@@ -637,10 +636,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>500</v>
@@ -648,10 +647,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>400</v>
@@ -659,10 +658,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>130</v>
@@ -670,10 +669,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25">
         <v>0</v>
